--- a/scalpel/typeinfer/evaluation/evaluation_outputs/trailofbits__algo.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/trailofbits__algo.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,12 +1440,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'str'}</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'str', 'any'}</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1472,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3392,12 +3392,12 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Tuple[str]', 'str'}</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>{'Tuple[str]', 'str', 'any'}</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>Tuple[str]</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3523,9 +3523,9 @@
           <t>{'any', 'NoneType'}</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -5728,21 +5728,35 @@
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr"/>
       <c r="B166" s="2" t="inlineStr"/>
-      <c r="C166" s="2" t="inlineStr"/>
-      <c r="D166" s="2" t="inlineStr"/>
-      <c r="E166" s="2" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>2616.67</v>
+      </c>
+      <c r="E166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr"/>
+      <c r="B167" s="2" t="inlineStr"/>
+      <c r="C167" s="2" t="inlineStr"/>
+      <c r="D167" s="2" t="inlineStr"/>
+      <c r="E167" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F166" s="2" t="n">
-        <v>133.33</v>
+      <c r="F167" s="2" t="n">
+        <v>216.67</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/trailofbits__algo.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/trailofbits__algo.xlsx
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[str]', 'str', 'any'}</t>
+          <t>{'str', 'Tuple[str]', 'any'}</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Tuple[str]</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
@@ -5734,16 +5734,16 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr"/>
       <c r="B166" s="2" t="inlineStr"/>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr"/>
+      <c r="D166" s="2" t="inlineStr"/>
+      <c r="E166" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
-        <v>2616.67</v>
-      </c>
-      <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="n">
+        <v>96.31999999999999</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr"/>
@@ -5752,7 +5752,7 @@
       <c r="D167" s="2" t="inlineStr"/>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F167" s="2" t="n">
